--- a/biology/Histoire de la zoologie et de la botanique/Charles_Coltman-Rogers/Charles_Coltman-Rogers.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Coltman-Rogers/Charles_Coltman-Rogers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Coltman-Rogers, né en 1854 et mort en 1929, est un botaniste britannique spécialiste des Pinaceae. Il est élu membre de la Linnean Society of London, le 4 novembre 1920. Il est brièvement député du Royaume-Uni du Parti libéral pour la circonscription de Radnor.
 </t>
@@ -511,7 +523,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1910, Mr. William Carruthers, Ph.D., F.R.S., F.L.S., F.G.S., &amp;c: A sketch of the services rendered by W. Carruthers as Consulting Botanist to the Royal Agricultural Society of England. 12 pp.
 1920, Conifers and their characteristics, éd. Kessinger Publishing, 368 pp.  (ISBN 1-120-18118-6)</t>
